--- a/src/templates/指引配置-导入模板.xlsx
+++ b/src/templates/指引配置-导入模板.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>名称</t>
+    <t>标题</t>
+  </si>
+  <si>
+    <t>标题（英文）</t>
   </si>
   <si>
     <t>视频</t>
@@ -25,7 +28,13 @@
     <t>描述</t>
   </si>
   <si>
+    <t>描述（英文）</t>
+  </si>
+  <si>
     <t>进阶使用教程</t>
+  </si>
+  <si>
+    <t>JQ</t>
   </si>
   <si>
     <t>https://raw.githubusercontent.com/undercurre/Video/refs/heads/main/kitchen-demo.mp4</t>
@@ -33,16 +42,19 @@
   <si>
     <t>掌控智能厨房助手的进阶操作</t>
   </si>
+  <si>
+    <t>DESC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -70,6 +82,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -77,30 +110,48 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -111,14 +162,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -127,11 +170,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,63 +186,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,187 +226,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,6 +417,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -423,36 +450,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -462,7 +478,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,23 +501,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,10 +523,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -523,139 +535,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -976,46 +991,59 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="87.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="34.4444444444444" customWidth="1"/>
+    <col min="1" max="2" width="18.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="87.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="34.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="39.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://raw.githubusercontent.com/undercurre/Video/refs/heads/main/kitchen-demo.mp4"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://raw.githubusercontent.com/undercurre/Video/refs/heads/main/kitchen-demo.mp4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
